--- a/conf/data/sensor_data.xlsx
+++ b/conf/data/sensor_data.xlsx
@@ -121,7 +121,7 @@
     <t>{'factoryId':'@{factoryId}'}</t>
   </si>
   <si>
-    <t>status=200;time&lt;5000;res.json()['checkPointInfo'][-1]['metrics'][0]['value']=None</t>
+    <t>status=200;time&lt;5000;res.json()['checkPointInfo'][-1]['metrics'][0]['value']!~None;res.json()['checkPointInfo'][-1]['metrics'][0]['state']=NORMAL;</t>
   </si>
   <si>
     <t>实时监测-sensors_latest</t>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -158,10 +158,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,9 +173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,8 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +211,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -211,7 +234,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,15 +250,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,44 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -287,25 +293,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,7 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,61 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,73 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +378,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -499,12 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +521,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +575,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -594,24 +607,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,148 +620,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.8076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1137,7 +1137,7 @@
     <col min="7" max="7" width="74.9903846153846" customWidth="1"/>
     <col min="8" max="8" width="59.6153846153846" customWidth="1"/>
     <col min="9" max="9" width="4.53846153846154" customWidth="1"/>
-    <col min="10" max="10" width="70.9903846153846" customWidth="1"/>
+    <col min="10" max="10" width="86.5384615384615" customWidth="1"/>
     <col min="11" max="11" width="27.1153846153846" style="4" customWidth="1"/>
     <col min="12" max="13" width="45.8269230769231" style="4" customWidth="1"/>
     <col min="14" max="14" width="9.61538461538461" style="5" customWidth="1"/>
@@ -17612,7 +17612,7 @@
       <c r="XFC2" s="8"/>
       <c r="XFD2" s="8"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="17" spans="1:16384">
+    <row r="3" s="2" customFormat="1" ht="34" spans="1:16384">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
